--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H2">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.616972666666666</v>
+        <v>6.229715</v>
       </c>
       <c r="N2">
-        <v>16.850918</v>
+        <v>18.689145</v>
       </c>
       <c r="O2">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750987</v>
       </c>
       <c r="P2">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750986</v>
       </c>
       <c r="Q2">
-        <v>31.12983544987867</v>
+        <v>39.337703569805</v>
       </c>
       <c r="R2">
-        <v>280.168519048908</v>
+        <v>354.039332128245</v>
       </c>
       <c r="S2">
-        <v>0.05310861306308612</v>
+        <v>0.0703900935532922</v>
       </c>
       <c r="T2">
-        <v>0.05310861306308611</v>
+        <v>0.07039009355329219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H3">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>36.611089</v>
       </c>
       <c r="O3">
-        <v>0.4885465594374674</v>
+        <v>0.5269588201056402</v>
       </c>
       <c r="P3">
-        <v>0.4885465594374673</v>
+        <v>0.5269588201056401</v>
       </c>
       <c r="Q3">
-        <v>67.63412985635934</v>
+        <v>77.06056999663434</v>
       </c>
       <c r="R3">
-        <v>608.707168707234</v>
+        <v>693.545129969709</v>
       </c>
       <c r="S3">
-        <v>0.1153862453973848</v>
+        <v>0.1378906300848919</v>
       </c>
       <c r="T3">
-        <v>0.1153862453973848</v>
+        <v>0.1378906300848919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H4">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.424464</v>
+        <v>2.383077666666667</v>
       </c>
       <c r="N4">
-        <v>16.273392</v>
+        <v>7.149233000000001</v>
       </c>
       <c r="O4">
-        <v>0.2171557822816253</v>
+        <v>0.1029019209546132</v>
       </c>
       <c r="P4">
-        <v>0.2171557822816252</v>
+        <v>0.1029019209546131</v>
       </c>
       <c r="Q4">
-        <v>30.062932783328</v>
+        <v>15.04800826926367</v>
       </c>
       <c r="R4">
-        <v>270.566395049952</v>
+        <v>135.432074423373</v>
       </c>
       <c r="S4">
-        <v>0.05128843894154142</v>
+        <v>0.02692660256551511</v>
       </c>
       <c r="T4">
-        <v>0.05128843894154141</v>
+        <v>0.02692660256551511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H5">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I5">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J5">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.734464333333333</v>
+        <v>2.342239666666666</v>
       </c>
       <c r="N5">
-        <v>5.203393</v>
+        <v>7.026719</v>
       </c>
       <c r="O5">
-        <v>0.06943523989551367</v>
+        <v>0.101138525364648</v>
       </c>
       <c r="P5">
-        <v>0.06943523989551366</v>
+        <v>0.1011385253646479</v>
       </c>
       <c r="Q5">
-        <v>9.612578250695334</v>
+        <v>14.79013561563767</v>
       </c>
       <c r="R5">
-        <v>86.51320425625801</v>
+        <v>133.111220540739</v>
       </c>
       <c r="S5">
-        <v>0.01639940242140938</v>
+        <v>0.02646517043892034</v>
       </c>
       <c r="T5">
-        <v>0.01639940242140938</v>
+        <v>0.02646517043892033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.576915</v>
       </c>
       <c r="I6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.616972666666666</v>
+        <v>6.229715</v>
       </c>
       <c r="N6">
-        <v>16.850918</v>
+        <v>18.689145</v>
       </c>
       <c r="O6">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750987</v>
       </c>
       <c r="P6">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750986</v>
       </c>
       <c r="Q6">
-        <v>19.80341415088555</v>
+        <v>21.96372200974167</v>
       </c>
       <c r="R6">
-        <v>178.23072735797</v>
+        <v>197.673498087675</v>
       </c>
       <c r="S6">
-        <v>0.03378533308217421</v>
+        <v>0.03930144128268143</v>
       </c>
       <c r="T6">
-        <v>0.0337853330821742</v>
+        <v>0.03930144128268142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.576915</v>
       </c>
       <c r="I7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>36.611089</v>
       </c>
       <c r="O7">
-        <v>0.4885465594374674</v>
+        <v>0.5269588201056402</v>
       </c>
       <c r="P7">
-        <v>0.4885465594374673</v>
+        <v>0.5269588201056401</v>
       </c>
       <c r="Q7">
         <v>43.02581960115944</v>
@@ -883,10 +883,10 @@
         <v>387.232376410435</v>
       </c>
       <c r="S7">
-        <v>0.07340358764822927</v>
+        <v>0.07698953401177656</v>
       </c>
       <c r="T7">
-        <v>0.07340358764822925</v>
+        <v>0.07698953401177655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.576915</v>
       </c>
       <c r="I8">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J8">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.424464</v>
+        <v>2.383077666666667</v>
       </c>
       <c r="N8">
-        <v>16.273392</v>
+        <v>7.149233000000001</v>
       </c>
       <c r="O8">
-        <v>0.2171557822816253</v>
+        <v>0.1029019209546132</v>
       </c>
       <c r="P8">
-        <v>0.2171557822816252</v>
+        <v>0.1029019209546131</v>
       </c>
       <c r="Q8">
-        <v>19.12469821618667</v>
+        <v>8.401869972910555</v>
       </c>
       <c r="R8">
-        <v>172.12228394568</v>
+        <v>75.616829756195</v>
       </c>
       <c r="S8">
-        <v>0.03262741941399211</v>
+        <v>0.01503413671228451</v>
       </c>
       <c r="T8">
-        <v>0.0326274194139921</v>
+        <v>0.0150341367122845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.576915</v>
       </c>
       <c r="I9">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J9">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.734464333333333</v>
+        <v>2.342239666666666</v>
       </c>
       <c r="N9">
-        <v>5.203393</v>
+        <v>7.026719</v>
       </c>
       <c r="O9">
-        <v>0.06943523989551367</v>
+        <v>0.101138525364648</v>
       </c>
       <c r="P9">
-        <v>0.06943523989551366</v>
+        <v>0.1011385253646479</v>
       </c>
       <c r="Q9">
-        <v>6.115093941399445</v>
+        <v>8.257889954653889</v>
       </c>
       <c r="R9">
-        <v>55.035845472595</v>
+        <v>74.321009591885</v>
       </c>
       <c r="S9">
-        <v>0.010432569054247</v>
+        <v>0.01477650177086228</v>
       </c>
       <c r="T9">
-        <v>0.01043256905424699</v>
+        <v>0.01477650177086228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H10">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.616972666666666</v>
+        <v>6.229715</v>
       </c>
       <c r="N10">
-        <v>16.850918</v>
+        <v>18.689145</v>
       </c>
       <c r="O10">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750987</v>
       </c>
       <c r="P10">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750986</v>
       </c>
       <c r="Q10">
-        <v>7.422494232964221</v>
+        <v>3.18222563801</v>
       </c>
       <c r="R10">
-        <v>66.80244809667799</v>
+        <v>28.64003074209</v>
       </c>
       <c r="S10">
-        <v>0.0126630407287624</v>
+        <v>0.00569421038952425</v>
       </c>
       <c r="T10">
-        <v>0.01266304072876239</v>
+        <v>0.00569421038952425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H11">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I11">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J11">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>36.611089</v>
       </c>
       <c r="O11">
-        <v>0.4885465594374674</v>
+        <v>0.5269588201056402</v>
       </c>
       <c r="P11">
-        <v>0.4885465594374673</v>
+        <v>0.5269588201056401</v>
       </c>
       <c r="Q11">
-        <v>16.12645655061878</v>
+        <v>6.233818938815333</v>
       </c>
       <c r="R11">
-        <v>145.138108955569</v>
+        <v>56.104370449338</v>
       </c>
       <c r="S11">
-        <v>0.02751231185929129</v>
+        <v>0.01115466990895501</v>
       </c>
       <c r="T11">
-        <v>0.02751231185929128</v>
+        <v>0.01115466990895501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H12">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I12">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J12">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.424464</v>
+        <v>2.383077666666667</v>
       </c>
       <c r="N12">
-        <v>16.273392</v>
+        <v>7.149233000000001</v>
       </c>
       <c r="O12">
-        <v>0.2171557822816253</v>
+        <v>0.1029019209546132</v>
       </c>
       <c r="P12">
-        <v>0.2171557822816252</v>
+        <v>0.1029019209546131</v>
       </c>
       <c r="Q12">
-        <v>7.168105516314666</v>
+        <v>1.217309435220667</v>
       </c>
       <c r="R12">
-        <v>64.512949646832</v>
+        <v>10.955784916986</v>
       </c>
       <c r="S12">
-        <v>0.01222904447645619</v>
+        <v>0.002178228957275982</v>
       </c>
       <c r="T12">
-        <v>0.01222904447645619</v>
+        <v>0.002178228957275982</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H13">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I13">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J13">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.734464333333333</v>
+        <v>2.342239666666666</v>
       </c>
       <c r="N13">
-        <v>5.203393</v>
+        <v>7.026719</v>
       </c>
       <c r="O13">
-        <v>0.06943523989551367</v>
+        <v>0.101138525364648</v>
       </c>
       <c r="P13">
-        <v>0.06943523989551366</v>
+        <v>0.1011385253646479</v>
       </c>
       <c r="Q13">
-        <v>2.291991126794777</v>
+        <v>1.196448813088667</v>
       </c>
       <c r="R13">
-        <v>20.627920141153</v>
+        <v>10.768039317798</v>
       </c>
       <c r="S13">
-        <v>0.003910218866815278</v>
+        <v>0.002140901380671371</v>
       </c>
       <c r="T13">
-        <v>0.003910218866815277</v>
+        <v>0.002140901380671371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H14">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I14">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J14">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.616972666666666</v>
+        <v>6.229715</v>
       </c>
       <c r="N14">
-        <v>16.850918</v>
+        <v>18.689145</v>
       </c>
       <c r="O14">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750987</v>
       </c>
       <c r="P14">
-        <v>0.2248624183853938</v>
+        <v>0.2690007335750986</v>
       </c>
       <c r="Q14">
-        <v>73.44830224226443</v>
+        <v>85.84817224316667</v>
       </c>
       <c r="R14">
-        <v>661.03472018038</v>
+        <v>772.6335501885001</v>
       </c>
       <c r="S14">
-        <v>0.1253054315113711</v>
+        <v>0.1536149883496008</v>
       </c>
       <c r="T14">
-        <v>0.1253054315113711</v>
+        <v>0.1536149883496008</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H15">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I15">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J15">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>36.611089</v>
       </c>
       <c r="O15">
-        <v>0.4885465594374674</v>
+        <v>0.5269588201056402</v>
       </c>
       <c r="P15">
-        <v>0.4885465594374673</v>
+        <v>0.5269588201056401</v>
       </c>
       <c r="Q15">
-        <v>159.5772010931655</v>
+        <v>168.1722237417445</v>
       </c>
       <c r="R15">
-        <v>1436.19480983849</v>
+        <v>1513.5500136757</v>
       </c>
       <c r="S15">
-        <v>0.272244414532562</v>
+        <v>0.3009239861000167</v>
       </c>
       <c r="T15">
-        <v>0.272244414532562</v>
+        <v>0.3009239861000167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H16">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I16">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J16">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.424464</v>
+        <v>2.383077666666667</v>
       </c>
       <c r="N16">
-        <v>16.273392</v>
+        <v>7.149233000000001</v>
       </c>
       <c r="O16">
-        <v>0.2171557822816253</v>
+        <v>0.1029019209546132</v>
       </c>
       <c r="P16">
-        <v>0.2171557822816252</v>
+        <v>0.1029019209546131</v>
       </c>
       <c r="Q16">
-        <v>70.93103260741333</v>
+        <v>32.83984291365556</v>
       </c>
       <c r="R16">
-        <v>638.37929346672</v>
+        <v>295.5585862229</v>
       </c>
       <c r="S16">
-        <v>0.1210108794496356</v>
+        <v>0.05876295271953755</v>
       </c>
       <c r="T16">
-        <v>0.1210108794496356</v>
+        <v>0.05876295271953755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H17">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I17">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J17">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.734464333333333</v>
+        <v>2.342239666666666</v>
       </c>
       <c r="N17">
-        <v>5.203393</v>
+        <v>7.026719</v>
       </c>
       <c r="O17">
-        <v>0.06943523989551367</v>
+        <v>0.101138525364648</v>
       </c>
       <c r="P17">
-        <v>0.06943523989551366</v>
+        <v>0.1011385253646479</v>
       </c>
       <c r="Q17">
-        <v>22.68009266612555</v>
+        <v>32.27707757718889</v>
       </c>
       <c r="R17">
-        <v>204.12083399513</v>
+        <v>290.4936981947</v>
       </c>
       <c r="S17">
-        <v>0.03869304955304202</v>
+        <v>0.05775595177419398</v>
       </c>
       <c r="T17">
-        <v>0.03869304955304202</v>
+        <v>0.05775595177419397</v>
       </c>
     </row>
   </sheetData>
